--- a/opis.xlsx
+++ b/opis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dipl\diplomat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dipl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F9035E-A571-48A7-B8D0-59835B96361D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E1EC3E-7175-4F88-8DE0-6DD8A04A6A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="1230" windowWidth="26265" windowHeight="14340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7440" yWindow="585" windowWidth="30960" windowHeight="18435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="174">
   <si>
     <t>Тур 501 «Весёлый Новый год в Карелии», 4 дня/3 ночи. Тур не продается. Этот тур без специального предложения. За 4 дня Вы успеете посетить Петрозаводск, побывать в гостях у Деда Мороза и даже выбрать экскурсию по душе. Готовы провести незабываемую новогоднюю ночь и праздничные дни в Карелии? Тогда этот тур – для Вас! За 4 дня Вы успеете посетить Петрозаводск, побывать в гостях у Деда Мороза и даже выбрать экскурсию по душе. Готовы провести незабываемую новогоднюю ночь и праздничные дни в Карелии? Тогда этот тур – для Вас! Длительность тура: 4 дней, 3 ночей. Цена тура: 26900 руб. Тур не для организаций. Тур не для школьников. Тур для не иностранных граждан
 Радость, романтика, ожидание чуда вот составляющие отличного зимнего праздника, которые Вы почувствуете во время тура на Новый год в Карелии. А, может, добавить еще детский смех и даже бокальчик шампанского? Почему бы и нет! И весь этот праздничный набор упакован в республике с пушистыми елями, зимними пейзажами и огромным количеством достопримечательностей и зимних развлечений. Встретьте Новый 2024 год в Карелии вместе с ТК Карелочка!
@@ -2284,6 +2284,12 @@
   </si>
   <si>
     <t>114, 115, 116, 117, 118, 119, 120, 123, 124, 135, 136, 138, 139, 140, 141, 142, 143, 144, 158, 159, 160, 161, 162, 165, 167, 174, 180, 181, 187, 189, 230, 251, 252, 254, 255, 171, 172, 131, 163</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>context</t>
   </si>
 </sst>
 </file>
@@ -2607,10 +2613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection sqref="A1:A39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2618,1384 +2624,930 @@
     <col min="2" max="2" width="210.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>114</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="b">
-        <f>ISERROR(SEARCH(" лето",LOWER($B1)))</f>
+    </row>
+    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>115</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>116</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>117</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>118</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>119</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>120</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>123</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="375" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>124</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>135</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>136</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>138</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>139</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>140</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>141</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>142</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>143</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>144</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>158</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>159</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>160</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>161</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="315" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>162</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>165</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>167</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>174</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>180</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>181</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>187</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>189</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>230</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>251</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="345" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>252</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="375" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>254</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>255</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="345" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>171</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>172</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>131</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>163</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>137</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>145</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>169</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>170</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="315" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>256</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>113</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>115</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="b">
-        <f>ISERROR(SEARCH(" лето",LOWER($B2)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>116</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="b">
-        <f>ISERROR(SEARCH(" лето",LOWER($B3)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>117</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="b">
-        <f>ISERROR(SEARCH(" лето",LOWER($B4)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>118</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="b">
-        <f>ISERROR(SEARCH(" лето",LOWER($B5)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>119</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="b">
-        <f>ISERROR(SEARCH(" лето",LOWER($B6)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>120</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="b">
-        <f>ISERROR(SEARCH(" лето",LOWER($B7)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>123</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="b">
-        <f>ISERROR(SEARCH(" лето",LOWER($B8)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="375" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>124</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="b">
-        <f>ISERROR(SEARCH(" лето",LOWER($B9)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>135</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="b">
-        <f>ISERROR(SEARCH(" лето",LOWER($B10)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>136</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="b">
-        <f>ISERROR(SEARCH(" лето",LOWER($B11)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>138</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="b">
-        <f>ISERROR(SEARCH(" лето",LOWER($B12)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>139</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="b">
-        <f>ISERROR(SEARCH(" лето",LOWER($B13)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>140</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="b">
-        <f>ISERROR(SEARCH(" лето",LOWER($B14)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>141</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="b">
-        <f>ISERROR(SEARCH(" лето",LOWER($B15)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>142</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="b">
-        <f>ISERROR(SEARCH(" лето",LOWER($B16)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="390" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>143</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="b">
-        <f>ISERROR(SEARCH(" лето",LOWER($B17)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>144</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" t="b">
-        <f>ISERROR(SEARCH(" лето",LOWER($B18)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>158</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" t="b">
-        <f>ISERROR(SEARCH(" лето",LOWER($B19)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>159</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" t="b">
-        <f>ISERROR(SEARCH(" лето",LOWER($B20)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>160</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" t="b">
-        <f>ISERROR(SEARCH(" лето",LOWER($B21)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>161</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" t="b">
-        <f>ISERROR(SEARCH(" лето",LOWER($B22)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="315" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>162</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" t="b">
-        <f>ISERROR(SEARCH(" лето",LOWER($B23)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>165</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" t="b">
-        <f>ISERROR(SEARCH(" лето",LOWER($B24)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>167</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" t="b">
-        <f>ISERROR(SEARCH(" лето",LOWER($B25)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="225" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>174</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" t="b">
-        <f>ISERROR(SEARCH(" лето",LOWER($B26)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>180</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" t="b">
-        <f>ISERROR(SEARCH(" лето",LOWER($B27)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>181</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" t="b">
-        <f>ISERROR(SEARCH(" лето",LOWER($B28)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="360" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>187</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" t="b">
-        <f>ISERROR(SEARCH(" лето",LOWER($B29)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="195" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>189</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" t="b">
-        <f>ISERROR(SEARCH(" лето",LOWER($B30)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>230</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" t="b">
-        <f>ISERROR(SEARCH(" лето",LOWER($B31)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="360" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>251</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" t="b">
-        <f>ISERROR(SEARCH(" лето",LOWER($B32)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="345" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>252</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" t="b">
-        <f>ISERROR(SEARCH(" лето",LOWER($B33)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="375" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>254</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" t="b">
-        <f>ISERROR(SEARCH(" лето",LOWER($B34)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="300" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>255</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C35" t="b">
-        <f>ISERROR(SEARCH(" лето",LOWER($B35)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="345" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>171</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B36)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="255" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>172</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B37)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="330" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>131</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B38)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="285" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>163</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B39)))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="300" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>137</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" t="b">
-        <f>ISERROR(SEARCH(" лето",LOWER($B40)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>145</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" t="b">
-        <f>ISERROR(SEARCH(" лето",LOWER($B41)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>169</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" t="b">
-        <f>ISERROR(SEARCH(" лето",LOWER($B42)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="210" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>170</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" t="b">
-        <f>ISERROR(SEARCH(" лето",LOWER($B43)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="315" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>256</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C44" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B44)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="300" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="47" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>122</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="375" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>126</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>128</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>129</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>130</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>132</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>146</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>147</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>148</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>149</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>151</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>152</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="315" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>153</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>154</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>155</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>156</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>157</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>166</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>168</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>175</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>179</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>184</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="375" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>206</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>208</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>209</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>210</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="345" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>211</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>212</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="405" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>215</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>216</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>221</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>222</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>223</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="345" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>224</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="345" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>225</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>226</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>227</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>228</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>231</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>232</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>233</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>257</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>259</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>260</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>262</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C45" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B45)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>122</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B46)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="375" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>126</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B47)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>128</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B48)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="360" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>129</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B49)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>130</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B50)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>132</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C51" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B51)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>146</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C52" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B52)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>147</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B53)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="255" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>148</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C54" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B54)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="225" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>149</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C55" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B55)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="285" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>151</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C56" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B56)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="195" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>152</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C57" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B57)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="315" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>153</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C58" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B58)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="195" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>154</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C59" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B59)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="210" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>155</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C60" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B60)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="195" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>156</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C61" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B61)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="285" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>157</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C62" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B62)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>166</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C63" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B63)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>168</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C64" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B64)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>175</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C65" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B65)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="300" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>179</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C66" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B66)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>184</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C67" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B67)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="375" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>206</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C68" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B68)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="240" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>208</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C69" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B69)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="330" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>209</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C70" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B70)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="285" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>210</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C71" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B71)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="345" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>211</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C72" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B72)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="300" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>212</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C73" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B73)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="405" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>215</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C74" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B74)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="390" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>216</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C75" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B75)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>221</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C76" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B76)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="330" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>222</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C77" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B77)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="360" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>223</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C78" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B78)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="345" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>224</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C79" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B79)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="345" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>225</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C80" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B80)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>226</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C81" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B81)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>227</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C82" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B82)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>228</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C83" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B83)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="330" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>231</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C84" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B84)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="225" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>232</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C85" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B85)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="210" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>233</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C86" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B86)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>257</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C87" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B87)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>259</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C88" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B88)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>260</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C89" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B89)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>262</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C90" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B90)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="360" x14ac:dyDescent="0.25">
-      <c r="A91">
+    </row>
+    <row r="92" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>121</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C91" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B91)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A92">
+    </row>
+    <row r="93" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>125</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C92" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B92)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="300" x14ac:dyDescent="0.25">
-      <c r="A93">
+    </row>
+    <row r="94" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>127</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C93" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B93)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A94">
+    </row>
+    <row r="95" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>133</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C94" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B94)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="360" x14ac:dyDescent="0.25">
-      <c r="A95">
+    </row>
+    <row r="96" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>134</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C95" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B95)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="195" x14ac:dyDescent="0.25">
-      <c r="A96">
+    </row>
+    <row r="97" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>150</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C96" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B96)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="375" x14ac:dyDescent="0.25">
-      <c r="A97">
+    </row>
+    <row r="98" spans="1:2" ht="375" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>164</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C97" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B97)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="225" x14ac:dyDescent="0.25">
-      <c r="A98">
+    </row>
+    <row r="99" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>173</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C98" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B98)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="195" x14ac:dyDescent="0.25">
-      <c r="A99">
+    </row>
+    <row r="100" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>188</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C99" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B99)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A100">
+    </row>
+    <row r="101" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>190</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C100" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B100)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="360" x14ac:dyDescent="0.25">
-      <c r="A101">
+    </row>
+    <row r="102" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A102">
         <v>201</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C101" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B101)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A102">
+    </row>
+    <row r="103" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A103">
         <v>202</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C102" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B102)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="390" x14ac:dyDescent="0.25">
-      <c r="A103">
+    </row>
+    <row r="104" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+      <c r="A104">
         <v>203</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C103" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B103)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="345" x14ac:dyDescent="0.25">
-      <c r="A104">
+    </row>
+    <row r="105" spans="1:2" ht="345" x14ac:dyDescent="0.25">
+      <c r="A105">
         <v>204</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B105" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C104" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B104)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="345" x14ac:dyDescent="0.25">
-      <c r="A105">
+    </row>
+    <row r="106" spans="1:2" ht="345" x14ac:dyDescent="0.25">
+      <c r="A106">
         <v>205</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B106" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C105" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B105)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="330" x14ac:dyDescent="0.25">
-      <c r="A106">
+    </row>
+    <row r="107" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="A107">
         <v>207</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C106" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B106)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="390" x14ac:dyDescent="0.25">
-      <c r="A107">
+    </row>
+    <row r="108" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+      <c r="A108">
         <v>213</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C107" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B107)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="375" x14ac:dyDescent="0.25">
-      <c r="A108">
+    </row>
+    <row r="109" spans="1:2" ht="375" x14ac:dyDescent="0.25">
+      <c r="A109">
         <v>214</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B109" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C108" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B108)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A109">
+    </row>
+    <row r="110" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A110">
         <v>218</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C109" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B109)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="330" x14ac:dyDescent="0.25">
-      <c r="A110">
+    </row>
+    <row r="111" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="A111">
         <v>219</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C110" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B110)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="135" x14ac:dyDescent="0.25">
-      <c r="A111">
+    </row>
+    <row r="112" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A112">
         <v>220</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C111" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B111)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="360" x14ac:dyDescent="0.25">
-      <c r="A112">
+    </row>
+    <row r="113" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A113">
         <v>253</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C112" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B112)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A113">
+    </row>
+    <row r="114" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A114">
         <v>258</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C113" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B113)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="330" x14ac:dyDescent="0.25">
-      <c r="A114">
+    </row>
+    <row r="115" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="A115">
         <v>261</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C114" t="b">
-        <f>ISERROR(SEARCH("заповедник",LOWER($B114)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C115" t="b">
-        <f>ISERROR(SEARCH("Рускеала",LOWER(B115)))</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F121" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C115">
-    <sortCondition ref="C1:C115"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C116">
+    <sortCondition ref="C2:C116"/>
   </sortState>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4007,7 +3559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC037A9-A206-47C6-9929-79F1C3F5BF5A}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="97" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="97" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -4041,7 +3593,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>116</v>
       </c>

--- a/opis.xlsx
+++ b/opis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dipl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E1EC3E-7175-4F88-8DE0-6DD8A04A6A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B71431-42C2-48A7-A0E7-4EB6F11432CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="585" windowWidth="30960" windowHeight="18435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5190" yWindow="1770" windowWidth="32505" windowHeight="18855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -2615,8 +2615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B71" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2632,532 +2632,532 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="300" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>114</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>113</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="375" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="375" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="375" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="300" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="330" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="315" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="300" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>187</v>
+        <v>141</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="390" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>230</v>
+        <v>143</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>251</v>
+        <v>144</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="345" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>252</v>
+        <v>145</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="375" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>254</v>
+        <v>146</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>255</v>
+        <v>147</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="345" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="315" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="315" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>256</v>
+        <v>156</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>113</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>0</v>
+        <v>157</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="375" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="315" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="375" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="315" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="345" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="300" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
@@ -3168,386 +3168,386 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="375" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A69">
+        <v>187</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>188</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>189</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>190</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>201</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>202</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>203</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="345" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>204</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="345" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>205</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="375" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>206</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A70">
+    <row r="79" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>207</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>208</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="330" x14ac:dyDescent="0.25">
-      <c r="A71">
+    <row r="81" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>209</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="285" x14ac:dyDescent="0.25">
-      <c r="A72">
+    <row r="82" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>210</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="345" x14ac:dyDescent="0.25">
-      <c r="A73">
+    <row r="83" spans="1:2" ht="345" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>211</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="300" x14ac:dyDescent="0.25">
-      <c r="A74">
+    <row r="84" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>212</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="405" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row r="85" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>213</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="375" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>214</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="405" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>215</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="390" x14ac:dyDescent="0.25">
-      <c r="A76">
+    <row r="88" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>216</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A77">
+    <row r="89" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>218</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>219</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>220</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>221</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="330" x14ac:dyDescent="0.25">
-      <c r="A78">
+    <row r="93" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>222</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A79">
+    <row r="94" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>223</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="345" x14ac:dyDescent="0.25">
-      <c r="A80">
+    <row r="95" spans="1:2" ht="345" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>224</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="345" x14ac:dyDescent="0.25">
-      <c r="A81">
+    <row r="96" spans="1:2" ht="345" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>225</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A82">
+    <row r="97" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>226</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A83">
+    <row r="98" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>227</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A84">
+    <row r="99" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>228</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="330" x14ac:dyDescent="0.25">
-      <c r="A85">
+    <row r="100" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>230</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>231</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A86">
+    <row r="102" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A102">
         <v>232</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A87">
+    <row r="103" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A103">
         <v>233</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>257</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>259</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>260</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>262</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>121</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>125</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="300" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>127</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>133</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>134</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>150</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="375" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>164</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>173</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>188</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>190</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>201</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>202</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>203</v>
+        <v>251</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="345" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>204</v>
+        <v>252</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="345" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>205</v>
+        <v>253</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="375" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>207</v>
+        <v>254</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="300" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="375" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="315" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>218</v>
+        <v>257</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>219</v>
+        <v>258</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>220</v>
+        <v>259</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="330" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F121" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C116">
-    <sortCondition ref="C2:C116"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B115">
+    <sortCondition ref="A2:A115"/>
   </sortState>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3559,8 +3559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC037A9-A206-47C6-9929-79F1C3F5BF5A}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="97" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A5" zoomScale="97" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
